--- a/GameMaster/RPGTale/Data/Data_Excel/FactoryMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FactoryMetaData.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94FC8A8-092C-4901-A740-1F7140CC24D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB7A53B-3640-491A-976E-DCF2AAF48686}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="1695" windowWidth="21675" windowHeight="12870" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factory" sheetId="1" r:id="rId1"/>
-    <sheet name="TextData_Facotry" sheetId="2" r:id="rId2"/>
+    <sheet name="TextData_Factory" sheetId="2" r:id="rId2"/>
+    <sheet name="Factory_Raw" sheetId="5" r:id="rId3"/>
+    <sheet name="Factory_Manufacture" sheetId="3" r:id="rId4"/>
+    <sheet name="Factory_Science" sheetId="6" r:id="rId5"/>
+    <sheet name="Factory_Energy" sheetId="7" r:id="rId6"/>
+    <sheet name="FactoryTypeData" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>FactoryID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,35 +65,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PlugSlotNumBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaffSlotNumBase</t>
+  </si>
+  <si>
+    <t>OutputSlotNumBase</t>
+  </si>
+  <si>
     <t>InputSlotNumBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutputSlotNumBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlugSlotNumBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaffSlotNumBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
+  </si>
+  <si>
+    <t>ssd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sssd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactoryIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sssd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactoryTypeIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManufactureID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RawID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScienceID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputMaterialList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutputMaterialList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaintenanceBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyConsumptionBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByProductList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhihi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>RawType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,83 +606,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="13" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="16" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -574,10 +715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A46918-95E4-419E-B9A8-71B0DBAA1118}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -594,6 +735,284 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF00DC8-62F0-4F39-B81C-8753D47E3579}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C36C7C-04DC-4456-8BF0-8145E1E436BE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBFA8D-F296-46D3-A807-8F497885FD5A}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/FactoryMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FactoryMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB7A53B-3640-491A-976E-DCF2AAF48686}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC575659-F239-45AC-B093-7C181B2F98F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1695" windowWidth="21675" windowHeight="12870" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21855" windowHeight="13110" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factory" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>FactoryID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,14 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InputMaterialList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutputMaterialList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaintenanceBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +179,6 @@
   </si>
   <si>
     <t>SpeedBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ByProductList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -629,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -670,7 +658,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -753,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -787,31 +775,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
@@ -819,36 +804,18 @@
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -874,7 +841,7 @@
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -882,7 +849,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/FactoryMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FactoryMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC575659-F239-45AC-B093-7C181B2F98F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2622FCEB-FEFD-483B-8B4B-57731A2296C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21855" windowHeight="13110" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factory" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>FactoryID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,22 @@
   </si>
   <si>
     <t>RawType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormulaInfoID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +613,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,32 +755,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D9CB5-1093-49C2-9930-BB947540A113}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -775,23 +805,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCD8A1-2A39-4F10-8879-1A20409A14BC}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="1" max="3" width="21.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -799,23 +829,29 @@
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
